--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4172891.58</v>
+        <v>6683332.25</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>149031.84</v>
+        <v>167083.31</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>459599.77</v>
+        <v>460671.35</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99180.12</v>
+        <v>98876.17999999999</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242115.98</v>
+        <v>242949.68</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358519.66</v>
+        <v>342955.28</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109200.24</v>
+        <v>120612.86</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>349400.5</v>
+        <v>348606.79</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>125454.18</v>
+        <v>125776.27</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>244943.85</v>
+        <v>244964.4</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>347321.59</v>
+        <v>347038.87</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>128278.82</v>
+        <v>128207.72</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>174292.13</v>
+        <v>175032.11</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>154169.26</v>
+        <v>153650.46</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108374.8</v>
+        <v>108006.66</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>225113.47</v>
+        <v>220692.82</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>234384.5</v>
+        <v>234840.35</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30151.75</v>
+        <v>29980.11</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>214355</v>
+        <v>214770.69</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>80088.00999999999</v>
+        <v>80018.75999999999</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48595.69</v>
+        <v>52043.23</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36693.5</v>
+        <v>36772.22</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>60681.33</v>
+        <v>60563.41</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65496.8</v>
+        <v>65168.82</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>38983.66</v>
+        <v>39080.85</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>17006.35</v>
+        <v>16968.21</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>121334.3</v>
+        <v>121376.07</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>50830.15</v>
+        <v>50854.03</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2030.36</v>
+        <v>2024.88</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,127 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46295.81</v>
+        <v>46387.72</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>57730.48</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>13899.75</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Superfondo</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>300943.21</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>180276.66</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>123542.71</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>15030.97</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>198573.93</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1213.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>10495.92</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2024.88</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1610709.44</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -773,7 +773,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Superfondo</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B35" t="n">

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,158 +436,206 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6683332.25</v>
+        <v>65439.45</v>
+      </c>
+      <c r="C2" t="n">
+        <v>65113.68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167083.31</v>
+        <v>459695.78</v>
+      </c>
+      <c r="C3" t="n">
+        <v>460076.59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>460671.35</v>
+        <v>39134.92</v>
+      </c>
+      <c r="C4" t="n">
+        <v>38928.01</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98876.17999999999</v>
+        <v>36783.49</v>
+      </c>
+      <c r="C5" t="n">
+        <v>36790.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242949.68</v>
+        <v>99103.64</v>
+      </c>
+      <c r="C6" t="n">
+        <v>99318.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>342955.28</v>
+        <v>242364.42</v>
+      </c>
+      <c r="C7" t="n">
+        <v>242684.39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>120612.86</v>
+        <v>179625.96</v>
+      </c>
+      <c r="C8" t="n">
+        <v>179630.92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>348606.79</v>
+        <v>16961.65</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16550.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>125776.27</v>
+        <v>1220.73</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1220.74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>244964.4</v>
+        <v>15003.14</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15021.03</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>347038.87</v>
+        <v>342305.82</v>
+      </c>
+      <c r="C12" t="n">
+        <v>342394.97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>128207.72</v>
-      </c>
+        <v>133855.46</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>175032.11</v>
+        <v>349963.03</v>
+      </c>
+      <c r="C14" t="n">
+        <v>350576.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>153650.46</v>
+        <v>125630.91</v>
+      </c>
+      <c r="C15" t="n">
+        <v>125184.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108006.66</v>
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +645,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>220692.82</v>
+        <v>220474.9</v>
+      </c>
+      <c r="C17" t="n">
+        <v>255598.38</v>
       </c>
     </row>
     <row r="18">
@@ -607,127 +658,166 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>234840.35</v>
+        <v>234473.01</v>
+      </c>
+      <c r="C18" t="n">
+        <v>251419.77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29980.11</v>
+        <v>245109.58</v>
+      </c>
+      <c r="C19" t="n">
+        <v>246329.97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>214770.69</v>
+        <v>347692.98</v>
+      </c>
+      <c r="C20" t="n">
+        <v>352513</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>80018.75999999999</v>
+        <v>120966.47</v>
+      </c>
+      <c r="C21" t="n">
+        <v>120873.18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52043.23</v>
+        <v>50893.88</v>
+      </c>
+      <c r="C22" t="n">
+        <v>50748.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36772.22</v>
+        <v>10499.83</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10488.52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>60563.41</v>
+        <v>127863.38</v>
+      </c>
+      <c r="C24" t="n">
+        <v>128297.94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65168.82</v>
+        <v>174692.86</v>
+      </c>
+      <c r="C25" t="n">
+        <v>174459.32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>39080.85</v>
+        <v>54940.28</v>
+      </c>
+      <c r="C26" t="n">
+        <v>53451.33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16968.21</v>
+        <v>2029.51</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2811.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>121376.07</v>
+        <v>2029.51</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2811.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>50854.03</v>
+        <v>62630.56</v>
+      </c>
+      <c r="C29" t="n">
+        <v>62561.72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2024.88</v>
+        <v>13896.76</v>
+      </c>
+      <c r="C30" t="n">
+        <v>13847.78</v>
       </c>
     </row>
     <row r="31">
@@ -737,77 +827,101 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46387.72</v>
+        <v>46408.88</v>
+      </c>
+      <c r="C31" t="n">
+        <v>46332.05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>30019.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>49829.03</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>57730.48</v>
+        <v>214807.43</v>
+      </c>
+      <c r="C33" t="n">
+        <v>214583.84</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13899.75</v>
+        <v>60644.87</v>
+      </c>
+      <c r="C34" t="n">
+        <v>60645.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>300943.21</v>
+        <v>154147.61</v>
+      </c>
+      <c r="C35" t="n">
+        <v>153737.81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>180276.66</v>
+        <v>108069.71</v>
+      </c>
+      <c r="C36" t="n">
+        <v>108208.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>123542.71</v>
+        <v>1747749.18</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1986685.86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15030.97</v>
+        <v>661302.59</v>
+      </c>
+      <c r="C38" t="n">
+        <v>659915.41</v>
       </c>
     </row>
     <row r="39">
@@ -817,47 +931,62 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>198573.93</v>
+        <v>198428.93</v>
+      </c>
+      <c r="C39" t="n">
+        <v>197661.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1213.5</v>
+        <v>80001.64999999999</v>
+      </c>
+      <c r="C40" t="n">
+        <v>79944.42</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10495.92</v>
+        <v>123567.56</v>
+      </c>
+      <c r="C41" t="n">
+        <v>123590.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2024.88</v>
+        <v>180010.75</v>
+      </c>
+      <c r="C42" t="n">
+        <v>189252.25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1610709.44</v>
+        <v>7200430.02</v>
+      </c>
+      <c r="C43" t="n">
+        <v>7380837.69</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,545 +443,441 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65439.45</v>
-      </c>
-      <c r="C2" t="n">
-        <v>65113.68</v>
+        <v>7744181.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>459695.78</v>
-      </c>
-      <c r="C3" t="n">
-        <v>460076.59</v>
+        <v>184385.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39134.92</v>
-      </c>
-      <c r="C4" t="n">
-        <v>38928.01</v>
+        <v>65113.68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36783.49</v>
-      </c>
-      <c r="C5" t="n">
-        <v>36790.43</v>
+        <v>460076.59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99103.64</v>
-      </c>
-      <c r="C6" t="n">
-        <v>99318.73</v>
+        <v>38928.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>242364.42</v>
-      </c>
-      <c r="C7" t="n">
-        <v>242684.39</v>
+        <v>36790.43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>179625.96</v>
-      </c>
-      <c r="C8" t="n">
-        <v>179630.92</v>
+        <v>99318.73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16961.65</v>
-      </c>
-      <c r="C9" t="n">
-        <v>16550.17</v>
+        <v>119.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1220.73</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1220.74</v>
+        <v>242684.39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15003.14</v>
-      </c>
-      <c r="C11" t="n">
-        <v>15021.03</v>
+        <v>220159.87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>342305.82</v>
-      </c>
-      <c r="C12" t="n">
-        <v>342394.97</v>
+        <v>179630.92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133855.46</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>16550.17</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>349963.03</v>
-      </c>
-      <c r="C14" t="n">
-        <v>350576.1</v>
+        <v>1220.74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>125630.91</v>
-      </c>
-      <c r="C15" t="n">
-        <v>125184.6</v>
+        <v>15021.03</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
+        <v>342394.97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>220474.9</v>
-      </c>
-      <c r="C17" t="n">
-        <v>255598.38</v>
+        <v>145795.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Compass Small Cap II</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>234473.01</v>
-      </c>
-      <c r="C18" t="n">
-        <v>251419.77</v>
+        <v>80.70999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245109.58</v>
-      </c>
-      <c r="C19" t="n">
-        <v>246329.97</v>
+        <v>350576.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>347692.98</v>
-      </c>
-      <c r="C20" t="n">
-        <v>352513</v>
+        <v>125184.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120966.47</v>
-      </c>
-      <c r="C21" t="n">
-        <v>120873.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50893.88</v>
-      </c>
-      <c r="C22" t="n">
-        <v>50748.5</v>
+        <v>255598.38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10499.83</v>
-      </c>
-      <c r="C23" t="n">
-        <v>10488.52</v>
+        <v>251419.77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>127863.38</v>
-      </c>
-      <c r="C24" t="n">
-        <v>128297.94</v>
+        <v>246329.97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>174692.86</v>
-      </c>
-      <c r="C25" t="n">
-        <v>174459.32</v>
+        <v>352513</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>54940.28</v>
-      </c>
-      <c r="C26" t="n">
-        <v>53451.33</v>
+        <v>120873.18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2029.51</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2811.8</v>
+        <v>50748.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2029.51</v>
-      </c>
-      <c r="C28" t="n">
-        <v>2811.8</v>
+        <v>10488.52</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>62630.56</v>
-      </c>
-      <c r="C29" t="n">
-        <v>62561.72</v>
+        <v>128297.94</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13896.76</v>
-      </c>
-      <c r="C30" t="n">
-        <v>13847.78</v>
+        <v>174459.32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46408.88</v>
-      </c>
-      <c r="C31" t="n">
-        <v>46332.05</v>
+        <v>53451.33</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30019.7</v>
-      </c>
-      <c r="C32" t="n">
-        <v>49829.03</v>
+        <v>2811.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>214807.43</v>
-      </c>
-      <c r="C33" t="n">
-        <v>214583.84</v>
+        <v>62561.72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>60644.87</v>
-      </c>
-      <c r="C34" t="n">
-        <v>60645.8</v>
+        <v>13847.78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>154147.61</v>
-      </c>
-      <c r="C35" t="n">
-        <v>153737.81</v>
+        <v>46332.05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>108069.71</v>
-      </c>
-      <c r="C36" t="n">
-        <v>108208.8</v>
+        <v>49829.03</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1747749.18</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1986685.86</v>
+        <v>214583.84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>661302.59</v>
-      </c>
-      <c r="C38" t="n">
-        <v>659915.41</v>
+        <v>60645.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>198428.93</v>
-      </c>
-      <c r="C39" t="n">
-        <v>197661.1</v>
+        <v>153737.81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80001.64999999999</v>
-      </c>
-      <c r="C40" t="n">
-        <v>79944.42</v>
+        <v>108208.8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>123567.56</v>
-      </c>
-      <c r="C41" t="n">
-        <v>123590.2</v>
+        <v>1986685.86</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>180010.75</v>
-      </c>
-      <c r="C42" t="n">
-        <v>189252.25</v>
+        <v>659915.41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7200430.02</v>
-      </c>
-      <c r="C43" t="n">
-        <v>7380837.69</v>
+        <v>197661.1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Toronto Trust Multimercado</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>79944.42</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>123590.2</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,445 +439,568 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7744181.33</v>
+        <v>65113.68</v>
+      </c>
+      <c r="C2" t="n">
+        <v>65208.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>184385.27</v>
+        <v>460076.59</v>
+      </c>
+      <c r="C3" t="n">
+        <v>432276.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65113.68</v>
+        <v>38928.01</v>
+      </c>
+      <c r="C4" t="n">
+        <v>49545.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>460076.59</v>
+        <v>36790.43</v>
+      </c>
+      <c r="C5" t="n">
+        <v>36852.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38928.01</v>
+        <v>99318.73</v>
+      </c>
+      <c r="C6" t="n">
+        <v>99171.28999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36790.43</v>
+        <v>119.06</v>
+      </c>
+      <c r="C7" t="n">
+        <v>114.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99318.73</v>
+        <v>242684.39</v>
+      </c>
+      <c r="C8" t="n">
+        <v>243082.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Latam</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>119.06</v>
+        <v>220159.87</v>
+      </c>
+      <c r="C9" t="n">
+        <v>228455.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>242684.39</v>
+        <v>179630.92</v>
+      </c>
+      <c r="C10" t="n">
+        <v>178136.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>220159.87</v>
+        <v>16550.17</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16528.16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>179630.92</v>
+        <v>1220.74</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1214.03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16550.17</v>
+        <v>15021.03</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15001.71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1220.74</v>
+        <v>342394.97</v>
+      </c>
+      <c r="C14" t="n">
+        <v>343069.22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15021.03</v>
+        <v>145795.8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>162896.96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Compass Small Cap II</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>342394.97</v>
+        <v>80.70999999999999</v>
+      </c>
+      <c r="C16" t="n">
+        <v>82.77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145795.8</v>
-      </c>
+        <v>350576.1</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Compass Small Cap II</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80.70999999999999</v>
-      </c>
+        <v>125184.6</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>350576.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>125184.6</v>
-      </c>
+        <v>255598.38</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
-      </c>
+        <v>251419.77</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>255598.38</v>
-      </c>
+        <v>246329.97</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>251419.77</v>
+        <v>352513</v>
+      </c>
+      <c r="C23" t="n">
+        <v>369060.26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>246329.97</v>
+        <v>120873.18</v>
+      </c>
+      <c r="C24" t="n">
+        <v>120941.11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>352513</v>
+        <v>50748.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>50811.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>120873.18</v>
+        <v>10488.52</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10478.69</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>50748.5</v>
+        <v>128297.94</v>
+      </c>
+      <c r="C27" t="n">
+        <v>128323.86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10488.52</v>
+        <v>174459.32</v>
+      </c>
+      <c r="C28" t="n">
+        <v>174240</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>128297.94</v>
+        <v>53451.33</v>
+      </c>
+      <c r="C29" t="n">
+        <v>56055.15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>174459.32</v>
+        <v>2811.8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2833.91</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53451.33</v>
+        <v>62561.72</v>
+      </c>
+      <c r="C31" t="n">
+        <v>71093.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2811.8</v>
+        <v>13847.78</v>
+      </c>
+      <c r="C32" t="n">
+        <v>13990.63</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>62561.72</v>
+        <v>46332.05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>46354.95</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13847.78</v>
-      </c>
+        <v>49829.03</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46332.05</v>
+        <v>214583.84</v>
+      </c>
+      <c r="C35" t="n">
+        <v>214408.32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>49829.03</v>
+        <v>60645.8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>60516.93</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>214583.84</v>
+        <v>153737.81</v>
+      </c>
+      <c r="C37" t="n">
+        <v>154135.23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>60645.8</v>
+        <v>108208.8</v>
+      </c>
+      <c r="C38" t="n">
+        <v>108402.05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>153737.81</v>
+        <v>1986685.86</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1988073.21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>108208.8</v>
+        <v>659915.41</v>
+      </c>
+      <c r="C40" t="n">
+        <v>661651.3199999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1986685.86</v>
+        <v>197661.1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>197729.46</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>659915.41</v>
+        <v>79944.42</v>
+      </c>
+      <c r="C42" t="n">
+        <v>80133.28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>197661.1</v>
+        <v>123590.2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>123591.93</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>79944.42</v>
+        <v>184385.27</v>
+      </c>
+      <c r="C44" t="n">
+        <v>185841.75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>123590.2</v>
+        <v>7744181.33</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6504461.37</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>65208.4</v>
       </c>
+      <c r="D2" t="n">
+        <v>65282.58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>432276.88</v>
       </c>
+      <c r="D3" t="n">
+        <v>433065.87</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>49545.18</v>
       </c>
+      <c r="D4" t="n">
+        <v>49683.68</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>36852.77</v>
       </c>
+      <c r="D5" t="n">
+        <v>36740.02</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>99171.28999999999</v>
       </c>
+      <c r="D6" t="n">
+        <v>99240.85000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>114.95</v>
       </c>
+      <c r="D7" t="n">
+        <v>110.83</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>243082.7</v>
       </c>
+      <c r="D8" t="n">
+        <v>243003.64</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -548,6 +574,9 @@
       <c r="C9" t="n">
         <v>228455.66</v>
       </c>
+      <c r="D9" t="n">
+        <v>256966.52</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,6 +590,9 @@
       <c r="C10" t="n">
         <v>178136.02</v>
       </c>
+      <c r="D10" t="n">
+        <v>179647.92</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -574,6 +606,9 @@
       <c r="C11" t="n">
         <v>16528.16</v>
       </c>
+      <c r="D11" t="n">
+        <v>16531.47</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -587,6 +622,9 @@
       <c r="C12" t="n">
         <v>1214.03</v>
       </c>
+      <c r="D12" t="n">
+        <v>1215.37</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -600,6 +638,9 @@
       <c r="C13" t="n">
         <v>15001.71</v>
       </c>
+      <c r="D13" t="n">
+        <v>15014.6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -613,6 +654,9 @@
       <c r="C14" t="n">
         <v>343069.22</v>
       </c>
+      <c r="D14" t="n">
+        <v>301798.69</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -626,6 +670,9 @@
       <c r="C15" t="n">
         <v>162896.96</v>
       </c>
+      <c r="D15" t="n">
+        <v>169012.19</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -639,6 +686,9 @@
       <c r="C16" t="n">
         <v>82.77</v>
       </c>
+      <c r="D16" t="n">
+        <v>85.62</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -650,6 +700,9 @@
         <v>350576.1</v>
       </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>349162.74</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -661,6 +714,9 @@
         <v>125184.6</v>
       </c>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>125403.64</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -672,6 +728,9 @@
         <v>0</v>
       </c>
       <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -683,6 +742,9 @@
         <v>255598.38</v>
       </c>
       <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>259843.63</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -694,6 +756,9 @@
         <v>251419.77</v>
       </c>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>257581.53</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -705,6 +770,9 @@
         <v>246329.97</v>
       </c>
       <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>250628.79</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -718,6 +786,9 @@
       <c r="C23" t="n">
         <v>369060.26</v>
       </c>
+      <c r="D23" t="n">
+        <v>376200.02</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -731,6 +802,9 @@
       <c r="C24" t="n">
         <v>120941.11</v>
       </c>
+      <c r="D24" t="n">
+        <v>61273.69</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -744,6 +818,9 @@
       <c r="C25" t="n">
         <v>50811.18</v>
       </c>
+      <c r="D25" t="n">
+        <v>45805.84</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -757,6 +834,9 @@
       <c r="C26" t="n">
         <v>10478.69</v>
       </c>
+      <c r="D26" t="n">
+        <v>10498.98</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -770,6 +850,9 @@
       <c r="C27" t="n">
         <v>128323.86</v>
       </c>
+      <c r="D27" t="n">
+        <v>128352.45</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -783,6 +866,9 @@
       <c r="C28" t="n">
         <v>174240</v>
       </c>
+      <c r="D28" t="n">
+        <v>150114.51</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -796,6 +882,9 @@
       <c r="C29" t="n">
         <v>56055.15</v>
       </c>
+      <c r="D29" t="n">
+        <v>72044.11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -809,6 +898,9 @@
       <c r="C30" t="n">
         <v>2833.91</v>
       </c>
+      <c r="D30" t="n">
+        <v>3239.67</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -822,6 +914,9 @@
       <c r="C31" t="n">
         <v>71093.2</v>
       </c>
+      <c r="D31" t="n">
+        <v>74990.45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -835,6 +930,9 @@
       <c r="C32" t="n">
         <v>13990.63</v>
       </c>
+      <c r="D32" t="n">
+        <v>13802.27</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -848,6 +946,9 @@
       <c r="C33" t="n">
         <v>46354.95</v>
       </c>
+      <c r="D33" t="n">
+        <v>46378.19</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -859,6 +960,9 @@
         <v>49829.03</v>
       </c>
       <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>120176.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -872,6 +976,9 @@
       <c r="C35" t="n">
         <v>214408.32</v>
       </c>
+      <c r="D35" t="n">
+        <v>214351.74</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -885,6 +992,9 @@
       <c r="C36" t="n">
         <v>60516.93</v>
       </c>
+      <c r="D36" t="n">
+        <v>60508.81</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -898,6 +1008,9 @@
       <c r="C37" t="n">
         <v>154135.23</v>
       </c>
+      <c r="D37" t="n">
+        <v>153830.03</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -911,6 +1024,9 @@
       <c r="C38" t="n">
         <v>108402.05</v>
       </c>
+      <c r="D38" t="n">
+        <v>102093.3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -924,6 +1040,9 @@
       <c r="C39" t="n">
         <v>1988073.21</v>
       </c>
+      <c r="D39" t="n">
+        <v>1988278.15</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -937,6 +1056,9 @@
       <c r="C40" t="n">
         <v>661651.3199999999</v>
       </c>
+      <c r="D40" t="n">
+        <v>736348.5600000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -950,6 +1072,9 @@
       <c r="C41" t="n">
         <v>197729.46</v>
       </c>
+      <c r="D41" t="n">
+        <v>198139.46</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -963,6 +1088,9 @@
       <c r="C42" t="n">
         <v>80133.28</v>
       </c>
+      <c r="D42" t="n">
+        <v>79945.84</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -976,6 +1104,9 @@
       <c r="C43" t="n">
         <v>123591.93</v>
       </c>
+      <c r="D43" t="n">
+        <v>123592.33</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -989,6 +1120,9 @@
       <c r="C44" t="n">
         <v>185841.75</v>
       </c>
+      <c r="D44" t="n">
+        <v>187380.59</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1001,6 +1135,9 @@
       </c>
       <c r="C45" t="n">
         <v>6504461.37</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7869984.98</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>65282.58</v>
       </c>
+      <c r="E2" t="n">
+        <v>65037.03</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>433065.87</v>
       </c>
+      <c r="E3" t="n">
+        <v>474565.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>49683.68</v>
       </c>
+      <c r="E4" t="n">
+        <v>49654.22</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>36740.02</v>
       </c>
+      <c r="E5" t="n">
+        <v>36924.27</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>99240.85000000001</v>
       </c>
+      <c r="E6" t="n">
+        <v>99228.41</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,6 +565,9 @@
       <c r="D7" t="n">
         <v>110.83</v>
       </c>
+      <c r="E7" t="n">
+        <v>113.45</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -561,6 +584,9 @@
       <c r="D8" t="n">
         <v>243003.64</v>
       </c>
+      <c r="E8" t="n">
+        <v>241951.01</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -577,6 +603,9 @@
       <c r="D9" t="n">
         <v>256966.52</v>
       </c>
+      <c r="E9" t="n">
+        <v>256867.03</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -593,6 +622,9 @@
       <c r="D10" t="n">
         <v>179647.92</v>
       </c>
+      <c r="E10" t="n">
+        <v>178475.05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -609,6 +641,9 @@
       <c r="D11" t="n">
         <v>16531.47</v>
       </c>
+      <c r="E11" t="n">
+        <v>16525.09</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -625,6 +660,9 @@
       <c r="D12" t="n">
         <v>1215.37</v>
       </c>
+      <c r="E12" t="n">
+        <v>1212.57</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -641,6 +679,9 @@
       <c r="D13" t="n">
         <v>15014.6</v>
       </c>
+      <c r="E13" t="n">
+        <v>15023.41</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -657,6 +698,9 @@
       <c r="D14" t="n">
         <v>301798.69</v>
       </c>
+      <c r="E14" t="n">
+        <v>302250.16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -673,6 +717,9 @@
       <c r="D15" t="n">
         <v>169012.19</v>
       </c>
+      <c r="E15" t="n">
+        <v>168917.55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -688,6 +735,9 @@
       </c>
       <c r="D16" t="n">
         <v>85.62</v>
+      </c>
+      <c r="E16" t="n">
+        <v>86.55</v>
       </c>
     </row>
     <row r="17">
@@ -703,6 +753,9 @@
       <c r="D17" t="n">
         <v>349162.74</v>
       </c>
+      <c r="E17" t="n">
+        <v>350112.13</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -717,6 +770,9 @@
       <c r="D18" t="n">
         <v>125403.64</v>
       </c>
+      <c r="E18" t="n">
+        <v>125451.1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -731,6 +787,9 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -745,6 +804,9 @@
       <c r="D20" t="n">
         <v>259843.63</v>
       </c>
+      <c r="E20" t="n">
+        <v>279104.56</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -759,6 +821,9 @@
       <c r="D21" t="n">
         <v>257581.53</v>
       </c>
+      <c r="E21" t="n">
+        <v>268190.37</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -773,6 +838,9 @@
       <c r="D22" t="n">
         <v>250628.79</v>
       </c>
+      <c r="E22" t="n">
+        <v>270209.47</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -789,6 +857,9 @@
       <c r="D23" t="n">
         <v>376200.02</v>
       </c>
+      <c r="E23" t="n">
+        <v>376887.73</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -805,6 +876,9 @@
       <c r="D24" t="n">
         <v>61273.69</v>
       </c>
+      <c r="E24" t="n">
+        <v>60994.39</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -821,6 +895,9 @@
       <c r="D25" t="n">
         <v>45805.84</v>
       </c>
+      <c r="E25" t="n">
+        <v>45749.98</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -837,6 +914,9 @@
       <c r="D26" t="n">
         <v>10498.98</v>
       </c>
+      <c r="E26" t="n">
+        <v>10481.65</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -853,6 +933,9 @@
       <c r="D27" t="n">
         <v>128352.45</v>
       </c>
+      <c r="E27" t="n">
+        <v>128307.03</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -869,6 +952,9 @@
       <c r="D28" t="n">
         <v>150114.51</v>
       </c>
+      <c r="E28" t="n">
+        <v>150023.83</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -885,6 +971,9 @@
       <c r="D29" t="n">
         <v>72044.11</v>
       </c>
+      <c r="E29" t="n">
+        <v>75429.08</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -901,6 +990,9 @@
       <c r="D30" t="n">
         <v>3239.67</v>
       </c>
+      <c r="E30" t="n">
+        <v>3239.29</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -917,6 +1009,9 @@
       <c r="D31" t="n">
         <v>74990.45</v>
       </c>
+      <c r="E31" t="n">
+        <v>82790.83</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -933,6 +1028,9 @@
       <c r="D32" t="n">
         <v>13802.27</v>
       </c>
+      <c r="E32" t="n">
+        <v>13850.53</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -948,6 +1046,9 @@
       </c>
       <c r="D33" t="n">
         <v>46378.19</v>
+      </c>
+      <c r="E33" t="n">
+        <v>46389.78</v>
       </c>
     </row>
     <row r="34">
@@ -963,6 +1064,9 @@
       <c r="D34" t="n">
         <v>120176.4</v>
       </c>
+      <c r="E34" t="n">
+        <v>119717.05</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -979,6 +1083,9 @@
       <c r="D35" t="n">
         <v>214351.74</v>
       </c>
+      <c r="E35" t="n">
+        <v>214441.97</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -995,6 +1102,9 @@
       <c r="D36" t="n">
         <v>60508.81</v>
       </c>
+      <c r="E36" t="n">
+        <v>60430.14</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1011,6 +1121,9 @@
       <c r="D37" t="n">
         <v>153830.03</v>
       </c>
+      <c r="E37" t="n">
+        <v>154029.71</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1027,6 +1140,9 @@
       <c r="D38" t="n">
         <v>102093.3</v>
       </c>
+      <c r="E38" t="n">
+        <v>100265.96</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1043,6 +1159,7 @@
       <c r="D39" t="n">
         <v>1988278.15</v>
       </c>
+      <c r="E39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1059,6 +1176,9 @@
       <c r="D40" t="n">
         <v>736348.5600000001</v>
       </c>
+      <c r="E40" t="n">
+        <v>734681.52</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1075,6 +1195,9 @@
       <c r="D41" t="n">
         <v>198139.46</v>
       </c>
+      <c r="E41" t="n">
+        <v>197227.67</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1091,6 +1214,9 @@
       <c r="D42" t="n">
         <v>79945.84</v>
       </c>
+      <c r="E42" t="n">
+        <v>79975.08</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1107,6 +1233,7 @@
       <c r="D43" t="n">
         <v>123592.33</v>
       </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1123,6 +1250,9 @@
       <c r="D44" t="n">
         <v>187380.59</v>
       </c>
+      <c r="E44" t="n">
+        <v>146370.29</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1138,6 +1268,9 @@
       </c>
       <c r="D45" t="n">
         <v>7869984.98</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5854811.7</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>65037.03</v>
       </c>
+      <c r="F2" t="n">
+        <v>64916.07</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>474565.05</v>
       </c>
+      <c r="F3" t="n">
+        <v>474734.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>49654.22</v>
       </c>
+      <c r="F4" t="n">
+        <v>69458.35000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>36924.27</v>
       </c>
+      <c r="F5" t="n">
+        <v>36605.68</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>99228.41</v>
       </c>
+      <c r="F6" t="n">
+        <v>99512.39999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -568,6 +588,9 @@
       <c r="E7" t="n">
         <v>113.45</v>
       </c>
+      <c r="F7" t="n">
+        <v>111.05</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -587,6 +610,9 @@
       <c r="E8" t="n">
         <v>241951.01</v>
       </c>
+      <c r="F8" t="n">
+        <v>243136.47</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -606,6 +632,9 @@
       <c r="E9" t="n">
         <v>256867.03</v>
       </c>
+      <c r="F9" t="n">
+        <v>256681.56</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -625,6 +654,9 @@
       <c r="E10" t="n">
         <v>178475.05</v>
       </c>
+      <c r="F10" t="n">
+        <v>179996.64</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -644,6 +676,9 @@
       <c r="E11" t="n">
         <v>16525.09</v>
       </c>
+      <c r="F11" t="n">
+        <v>16620.49</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -663,6 +698,9 @@
       <c r="E12" t="n">
         <v>1212.57</v>
       </c>
+      <c r="F12" t="n">
+        <v>1217.27</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -682,6 +720,9 @@
       <c r="E13" t="n">
         <v>15023.41</v>
       </c>
+      <c r="F13" t="n">
+        <v>15029.43</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -701,6 +742,9 @@
       <c r="E14" t="n">
         <v>302250.16</v>
       </c>
+      <c r="F14" t="n">
+        <v>272267.87</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -720,6 +764,9 @@
       <c r="E15" t="n">
         <v>168917.55</v>
       </c>
+      <c r="F15" t="n">
+        <v>175294.58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -738,6 +785,9 @@
       </c>
       <c r="E16" t="n">
         <v>86.55</v>
+      </c>
+      <c r="F16" t="n">
+        <v>93.79000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -756,6 +806,9 @@
       <c r="E17" t="n">
         <v>350112.13</v>
       </c>
+      <c r="F17" t="n">
+        <v>350143.45</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -773,6 +826,9 @@
       <c r="E18" t="n">
         <v>125451.1</v>
       </c>
+      <c r="F18" t="n">
+        <v>125649.65</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -790,6 +846,9 @@
       <c r="E19" t="n">
         <v>0</v>
       </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -807,6 +866,9 @@
       <c r="E20" t="n">
         <v>279104.56</v>
       </c>
+      <c r="F20" t="n">
+        <v>291124.23</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -824,6 +886,9 @@
       <c r="E21" t="n">
         <v>268190.37</v>
       </c>
+      <c r="F21" t="n">
+        <v>269200.45</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -841,6 +906,9 @@
       <c r="E22" t="n">
         <v>270209.47</v>
       </c>
+      <c r="F22" t="n">
+        <v>266730.46</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -860,6 +928,9 @@
       <c r="E23" t="n">
         <v>376887.73</v>
       </c>
+      <c r="F23" t="n">
+        <v>380797.21</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -879,6 +950,9 @@
       <c r="E24" t="n">
         <v>60994.39</v>
       </c>
+      <c r="F24" t="n">
+        <v>61147.12</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -898,6 +972,9 @@
       <c r="E25" t="n">
         <v>45749.98</v>
       </c>
+      <c r="F25" t="n">
+        <v>45836.52</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -917,6 +994,9 @@
       <c r="E26" t="n">
         <v>10481.65</v>
       </c>
+      <c r="F26" t="n">
+        <v>10506.95</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -936,6 +1016,9 @@
       <c r="E27" t="n">
         <v>128307.03</v>
       </c>
+      <c r="F27" t="n">
+        <v>127868.01</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -955,6 +1038,9 @@
       <c r="E28" t="n">
         <v>150023.83</v>
       </c>
+      <c r="F28" t="n">
+        <v>149766.24</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -974,6 +1060,9 @@
       <c r="E29" t="n">
         <v>75429.08</v>
       </c>
+      <c r="F29" t="n">
+        <v>74417.98</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -993,6 +1082,9 @@
       <c r="E30" t="n">
         <v>3239.29</v>
       </c>
+      <c r="F30" t="n">
+        <v>3241.93</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1012,6 +1104,9 @@
       <c r="E31" t="n">
         <v>82790.83</v>
       </c>
+      <c r="F31" t="n">
+        <v>82938.10000000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1031,6 +1126,9 @@
       <c r="E32" t="n">
         <v>13850.53</v>
       </c>
+      <c r="F32" t="n">
+        <v>13895</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1049,6 +1147,9 @@
       </c>
       <c r="E33" t="n">
         <v>46389.78</v>
+      </c>
+      <c r="F33" t="n">
+        <v>46346.66</v>
       </c>
     </row>
     <row r="34">
@@ -1067,6 +1168,9 @@
       <c r="E34" t="n">
         <v>119717.05</v>
       </c>
+      <c r="F34" t="n">
+        <v>119725.44</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1086,6 +1190,9 @@
       <c r="E35" t="n">
         <v>214441.97</v>
       </c>
+      <c r="F35" t="n">
+        <v>214543.76</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1105,6 +1212,9 @@
       <c r="E36" t="n">
         <v>60430.14</v>
       </c>
+      <c r="F36" t="n">
+        <v>60640.63</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1124,6 +1234,9 @@
       <c r="E37" t="n">
         <v>154029.71</v>
       </c>
+      <c r="F37" t="n">
+        <v>154174.72</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1143,6 +1256,9 @@
       <c r="E38" t="n">
         <v>100265.96</v>
       </c>
+      <c r="F38" t="n">
+        <v>107727.64</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1160,6 +1276,7 @@
         <v>1988278.15</v>
       </c>
       <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1179,6 +1296,9 @@
       <c r="E40" t="n">
         <v>734681.52</v>
       </c>
+      <c r="F40" t="n">
+        <v>736071.55</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1198,6 +1318,9 @@
       <c r="E41" t="n">
         <v>197227.67</v>
       </c>
+      <c r="F41" t="n">
+        <v>197865.52</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1217,6 +1340,9 @@
       <c r="E42" t="n">
         <v>79975.08</v>
       </c>
+      <c r="F42" t="n">
+        <v>79918.24000000001</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1234,6 +1360,7 @@
         <v>123592.33</v>
       </c>
       <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1253,6 +1380,9 @@
       <c r="E44" t="n">
         <v>146370.29</v>
       </c>
+      <c r="F44" t="n">
+        <v>146898.83</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1271,6 +1401,9 @@
       </c>
       <c r="E45" t="n">
         <v>5854811.7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5875953.14</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>64916.07</v>
       </c>
+      <c r="G2" t="n">
+        <v>65148.29</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>474734.03</v>
       </c>
+      <c r="G3" t="n">
+        <v>474412.74</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>69458.35000000001</v>
       </c>
+      <c r="G4" t="n">
+        <v>69216.97</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>36605.68</v>
       </c>
+      <c r="G5" t="n">
+        <v>36669.13</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>99512.39999999999</v>
       </c>
+      <c r="G6" t="n">
+        <v>98910.73</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,6 +611,9 @@
       <c r="F7" t="n">
         <v>111.05</v>
       </c>
+      <c r="G7" t="n">
+        <v>111.83</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -613,6 +636,9 @@
       <c r="F8" t="n">
         <v>243136.47</v>
       </c>
+      <c r="G8" t="n">
+        <v>242536.51</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -635,6 +661,9 @@
       <c r="F9" t="n">
         <v>256681.56</v>
       </c>
+      <c r="G9" t="n">
+        <v>256818.34</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -657,6 +686,9 @@
       <c r="F10" t="n">
         <v>179996.64</v>
       </c>
+      <c r="G10" t="n">
+        <v>179562.25</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -679,6 +711,9 @@
       <c r="F11" t="n">
         <v>16620.49</v>
       </c>
+      <c r="G11" t="n">
+        <v>16642.97</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -701,6 +736,9 @@
       <c r="F12" t="n">
         <v>1217.27</v>
       </c>
+      <c r="G12" t="n">
+        <v>1222.71</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -723,6 +761,9 @@
       <c r="F13" t="n">
         <v>15029.43</v>
       </c>
+      <c r="G13" t="n">
+        <v>15031.46</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -745,6 +786,9 @@
       <c r="F14" t="n">
         <v>272267.87</v>
       </c>
+      <c r="G14" t="n">
+        <v>183576.59</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -767,6 +811,9 @@
       <c r="F15" t="n">
         <v>175294.58</v>
       </c>
+      <c r="G15" t="n">
+        <v>175128.15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -788,6 +835,9 @@
       </c>
       <c r="F16" t="n">
         <v>93.79000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>97.02</v>
       </c>
     </row>
     <row r="17">
@@ -809,6 +859,9 @@
       <c r="F17" t="n">
         <v>350143.45</v>
       </c>
+      <c r="G17" t="n">
+        <v>350065.56</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -829,6 +882,9 @@
       <c r="F18" t="n">
         <v>125649.65</v>
       </c>
+      <c r="G18" t="n">
+        <v>125893.72</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -849,6 +905,9 @@
       <c r="F19" t="n">
         <v>0</v>
       </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -869,6 +928,9 @@
       <c r="F20" t="n">
         <v>291124.23</v>
       </c>
+      <c r="G20" t="n">
+        <v>291201.89</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -889,6 +951,9 @@
       <c r="F21" t="n">
         <v>269200.45</v>
       </c>
+      <c r="G21" t="n">
+        <v>264788.68</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -909,6 +974,9 @@
       <c r="F22" t="n">
         <v>266730.46</v>
       </c>
+      <c r="G22" t="n">
+        <v>269182.24</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -931,6 +999,9 @@
       <c r="F23" t="n">
         <v>380797.21</v>
       </c>
+      <c r="G23" t="n">
+        <v>380119.21</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -953,6 +1024,9 @@
       <c r="F24" t="n">
         <v>61147.12</v>
       </c>
+      <c r="G24" t="n">
+        <v>61180.8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -975,6 +1049,9 @@
       <c r="F25" t="n">
         <v>45836.52</v>
       </c>
+      <c r="G25" t="n">
+        <v>45737.12</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -997,6 +1074,9 @@
       <c r="F26" t="n">
         <v>10506.95</v>
       </c>
+      <c r="G26" t="n">
+        <v>10477.96</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1019,6 +1099,9 @@
       <c r="F27" t="n">
         <v>127868.01</v>
       </c>
+      <c r="G27" t="n">
+        <v>128082.64</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1041,6 +1124,9 @@
       <c r="F28" t="n">
         <v>149766.24</v>
       </c>
+      <c r="G28" t="n">
+        <v>149598.71</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1063,6 +1149,9 @@
       <c r="F29" t="n">
         <v>74417.98</v>
       </c>
+      <c r="G29" t="n">
+        <v>74715.89</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1085,6 +1174,9 @@
       <c r="F30" t="n">
         <v>3241.93</v>
       </c>
+      <c r="G30" t="n">
+        <v>3226.3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1107,6 +1199,9 @@
       <c r="F31" t="n">
         <v>82938.10000000001</v>
       </c>
+      <c r="G31" t="n">
+        <v>82864.03</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1129,6 +1224,9 @@
       <c r="F32" t="n">
         <v>13895</v>
       </c>
+      <c r="G32" t="n">
+        <v>13970.38</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1150,6 +1248,9 @@
       </c>
       <c r="F33" t="n">
         <v>46346.66</v>
+      </c>
+      <c r="G33" t="n">
+        <v>46305.92</v>
       </c>
     </row>
     <row r="34">
@@ -1171,6 +1272,9 @@
       <c r="F34" t="n">
         <v>119725.44</v>
       </c>
+      <c r="G34" t="n">
+        <v>120025.54</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1193,6 +1297,9 @@
       <c r="F35" t="n">
         <v>214543.76</v>
       </c>
+      <c r="G35" t="n">
+        <v>214179.05</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1215,6 +1322,9 @@
       <c r="F36" t="n">
         <v>60640.63</v>
       </c>
+      <c r="G36" t="n">
+        <v>60436.48</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1237,6 +1347,9 @@
       <c r="F37" t="n">
         <v>154174.72</v>
       </c>
+      <c r="G37" t="n">
+        <v>153622.16</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1259,6 +1372,9 @@
       <c r="F38" t="n">
         <v>107727.64</v>
       </c>
+      <c r="G38" t="n">
+        <v>109223.4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1277,6 +1393,7 @@
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1299,6 +1416,9 @@
       <c r="F40" t="n">
         <v>736071.55</v>
       </c>
+      <c r="G40" t="n">
+        <v>735243.4399999999</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1321,6 +1441,9 @@
       <c r="F41" t="n">
         <v>197865.52</v>
       </c>
+      <c r="G41" t="n">
+        <v>197751.84</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1343,6 +1466,9 @@
       <c r="F42" t="n">
         <v>79918.24000000001</v>
       </c>
+      <c r="G42" t="n">
+        <v>79994.13</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1361,6 +1487,7 @@
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1383,6 +1510,9 @@
       <c r="F44" t="n">
         <v>146898.83</v>
       </c>
+      <c r="G44" t="n">
+        <v>144574.32</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1404,6 +1534,9 @@
       </c>
       <c r="F45" t="n">
         <v>5875953.14</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5782972.78</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>65148.29</v>
       </c>
+      <c r="H2" t="n">
+        <v>65798.48</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>474412.74</v>
       </c>
+      <c r="H3" t="n">
+        <v>449756.54</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>69216.97</v>
       </c>
+      <c r="H4" t="n">
+        <v>69553.59</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>36669.13</v>
       </c>
+      <c r="H5" t="n">
+        <v>36823.28</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>98910.73</v>
       </c>
+      <c r="H6" t="n">
+        <v>99003.35000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>111.83</v>
       </c>
+      <c r="H7" t="n">
+        <v>111.69</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>242536.51</v>
       </c>
+      <c r="H8" t="n">
+        <v>242319.86</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>256818.34</v>
       </c>
+      <c r="H9" t="n">
+        <v>256649.31</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>179562.25</v>
       </c>
+      <c r="H10" t="n">
+        <v>179555.89</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>16642.97</v>
       </c>
+      <c r="H11" t="n">
+        <v>16621.15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -739,6 +774,9 @@
       <c r="G12" t="n">
         <v>1222.71</v>
       </c>
+      <c r="H12" t="n">
+        <v>1211.92</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -764,6 +802,9 @@
       <c r="G13" t="n">
         <v>15031.46</v>
       </c>
+      <c r="H13" t="n">
+        <v>15015.25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -789,6 +830,9 @@
       <c r="G14" t="n">
         <v>183576.59</v>
       </c>
+      <c r="H14" t="n">
+        <v>184480.14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -814,6 +858,9 @@
       <c r="G15" t="n">
         <v>175128.15</v>
       </c>
+      <c r="H15" t="n">
+        <v>188354.36</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -838,6 +885,9 @@
       </c>
       <c r="G16" t="n">
         <v>97.02</v>
+      </c>
+      <c r="H16" t="n">
+        <v>93.51000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -862,6 +912,9 @@
       <c r="G17" t="n">
         <v>350065.56</v>
       </c>
+      <c r="H17" t="n">
+        <v>349603.1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -885,6 +938,9 @@
       <c r="G18" t="n">
         <v>125893.72</v>
       </c>
+      <c r="H18" t="n">
+        <v>125308.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -908,6 +964,9 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -931,6 +990,9 @@
       <c r="G20" t="n">
         <v>291201.89</v>
       </c>
+      <c r="H20" t="n">
+        <v>291103.71</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -954,6 +1016,9 @@
       <c r="G21" t="n">
         <v>264788.68</v>
       </c>
+      <c r="H21" t="n">
+        <v>264044.62</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -977,6 +1042,9 @@
       <c r="G22" t="n">
         <v>269182.24</v>
       </c>
+      <c r="H22" t="n">
+        <v>268726.27</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1002,6 +1070,9 @@
       <c r="G23" t="n">
         <v>380119.21</v>
       </c>
+      <c r="H23" t="n">
+        <v>381044.16</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1027,6 +1098,9 @@
       <c r="G24" t="n">
         <v>61180.8</v>
       </c>
+      <c r="H24" t="n">
+        <v>61290.35</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1052,6 +1126,9 @@
       <c r="G25" t="n">
         <v>45737.12</v>
       </c>
+      <c r="H25" t="n">
+        <v>45937.92</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1077,6 +1154,9 @@
       <c r="G26" t="n">
         <v>10477.96</v>
       </c>
+      <c r="H26" t="n">
+        <v>10484.33</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1102,6 +1182,9 @@
       <c r="G27" t="n">
         <v>128082.64</v>
       </c>
+      <c r="H27" t="n">
+        <v>128022.15</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1127,6 +1210,9 @@
       <c r="G28" t="n">
         <v>149598.71</v>
       </c>
+      <c r="H28" t="n">
+        <v>159240.98</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1152,6 +1238,9 @@
       <c r="G29" t="n">
         <v>74715.89</v>
       </c>
+      <c r="H29" t="n">
+        <v>88593.48</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1177,6 +1266,9 @@
       <c r="G30" t="n">
         <v>3226.3</v>
       </c>
+      <c r="H30" t="n">
+        <v>3208.76</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1202,6 +1294,9 @@
       <c r="G31" t="n">
         <v>82864.03</v>
       </c>
+      <c r="H31" t="n">
+        <v>83054.41</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1227,6 +1322,9 @@
       <c r="G32" t="n">
         <v>13970.38</v>
       </c>
+      <c r="H32" t="n">
+        <v>13866.35</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1251,6 +1349,9 @@
       </c>
       <c r="G33" t="n">
         <v>46305.92</v>
+      </c>
+      <c r="H33" t="n">
+        <v>46301.28</v>
       </c>
     </row>
     <row r="34">
@@ -1275,6 +1376,9 @@
       <c r="G34" t="n">
         <v>120025.54</v>
       </c>
+      <c r="H34" t="n">
+        <v>120316.38</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1300,6 +1404,9 @@
       <c r="G35" t="n">
         <v>214179.05</v>
       </c>
+      <c r="H35" t="n">
+        <v>214916.92</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1325,6 +1432,9 @@
       <c r="G36" t="n">
         <v>60436.48</v>
       </c>
+      <c r="H36" t="n">
+        <v>60582.73</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1350,6 +1460,9 @@
       <c r="G37" t="n">
         <v>153622.16</v>
       </c>
+      <c r="H37" t="n">
+        <v>153737.52</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1374,6 +1487,9 @@
       </c>
       <c r="G38" t="n">
         <v>109223.4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>109394.13</v>
       </c>
     </row>
     <row r="39">
@@ -1394,6 +1510,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1419,6 +1536,9 @@
       <c r="G40" t="n">
         <v>735243.4399999999</v>
       </c>
+      <c r="H40" t="n">
+        <v>734556.4300000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1444,6 +1564,9 @@
       <c r="G41" t="n">
         <v>197751.84</v>
       </c>
+      <c r="H41" t="n">
+        <v>197355.92</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1468,6 +1591,9 @@
       </c>
       <c r="G42" t="n">
         <v>79994.13</v>
+      </c>
+      <c r="H42" t="n">
+        <v>80022.25</v>
       </c>
     </row>
     <row r="43">
@@ -1488,6 +1614,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1513,6 +1640,9 @@
       <c r="G44" t="n">
         <v>144574.32</v>
       </c>
+      <c r="H44" t="n">
+        <v>144901.52</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1537,6 +1667,9 @@
       </c>
       <c r="G45" t="n">
         <v>5782972.78</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5796060.97</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>65798.48</v>
       </c>
+      <c r="I2" t="n">
+        <v>45609.88</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>449756.54</v>
       </c>
+      <c r="I3" t="n">
+        <v>450238.13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>69553.59</v>
       </c>
+      <c r="I4" t="n">
+        <v>69462.82000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>36823.28</v>
       </c>
+      <c r="I5" t="n">
+        <v>36760.33</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,6 +626,9 @@
       <c r="H6" t="n">
         <v>99003.35000000001</v>
       </c>
+      <c r="I6" t="n">
+        <v>99546.85000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -637,6 +657,9 @@
       <c r="H7" t="n">
         <v>111.69</v>
       </c>
+      <c r="I7" t="n">
+        <v>109.66</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -665,6 +688,9 @@
       <c r="H8" t="n">
         <v>242319.86</v>
       </c>
+      <c r="I8" t="n">
+        <v>242595.15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -693,6 +719,9 @@
       <c r="H9" t="n">
         <v>256649.31</v>
       </c>
+      <c r="I9" t="n">
+        <v>256742.18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -721,6 +750,9 @@
       <c r="H10" t="n">
         <v>179555.89</v>
       </c>
+      <c r="I10" t="n">
+        <v>177887.91</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -749,6 +781,9 @@
       <c r="H11" t="n">
         <v>16621.15</v>
       </c>
+      <c r="I11" t="n">
+        <v>16606.66</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -777,6 +812,9 @@
       <c r="H12" t="n">
         <v>1211.92</v>
       </c>
+      <c r="I12" t="n">
+        <v>1213.76</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -805,6 +843,9 @@
       <c r="H13" t="n">
         <v>15015.25</v>
       </c>
+      <c r="I13" t="n">
+        <v>14968.2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -833,6 +874,9 @@
       <c r="H14" t="n">
         <v>184480.14</v>
       </c>
+      <c r="I14" t="n">
+        <v>183587.63</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -861,6 +905,9 @@
       <c r="H15" t="n">
         <v>188354.36</v>
       </c>
+      <c r="I15" t="n">
+        <v>188242.86</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -888,6 +935,9 @@
       </c>
       <c r="H16" t="n">
         <v>93.51000000000001</v>
+      </c>
+      <c r="I16" t="n">
+        <v>84.95999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -915,6 +965,9 @@
       <c r="H17" t="n">
         <v>349603.1</v>
       </c>
+      <c r="I17" t="n">
+        <v>349512.15</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -941,6 +994,9 @@
       <c r="H18" t="n">
         <v>125308.5</v>
       </c>
+      <c r="I18" t="n">
+        <v>125281.54</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -967,6 +1023,9 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -993,6 +1052,9 @@
       <c r="H20" t="n">
         <v>291103.71</v>
       </c>
+      <c r="I20" t="n">
+        <v>290436.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1019,6 +1081,9 @@
       <c r="H21" t="n">
         <v>264044.62</v>
       </c>
+      <c r="I21" t="n">
+        <v>274282.59</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1045,6 +1110,9 @@
       <c r="H22" t="n">
         <v>268726.27</v>
       </c>
+      <c r="I22" t="n">
+        <v>265365</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1073,6 +1141,9 @@
       <c r="H23" t="n">
         <v>381044.16</v>
       </c>
+      <c r="I23" t="n">
+        <v>380237.02</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1101,6 +1172,9 @@
       <c r="H24" t="n">
         <v>61290.35</v>
       </c>
+      <c r="I24" t="n">
+        <v>61224.78</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1129,6 +1203,9 @@
       <c r="H25" t="n">
         <v>45937.92</v>
       </c>
+      <c r="I25" t="n">
+        <v>45856.32</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1157,6 +1234,9 @@
       <c r="H26" t="n">
         <v>10484.33</v>
       </c>
+      <c r="I26" t="n">
+        <v>10461.45</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1185,6 +1265,9 @@
       <c r="H27" t="n">
         <v>128022.15</v>
       </c>
+      <c r="I27" t="n">
+        <v>127868.28</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1213,6 +1296,9 @@
       <c r="H28" t="n">
         <v>159240.98</v>
       </c>
+      <c r="I28" t="n">
+        <v>160110.46</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1241,6 +1327,9 @@
       <c r="H29" t="n">
         <v>88593.48</v>
       </c>
+      <c r="I29" t="n">
+        <v>88751.39</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1269,6 +1358,9 @@
       <c r="H30" t="n">
         <v>3208.76</v>
       </c>
+      <c r="I30" t="n">
+        <v>3222.26</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1297,6 +1389,9 @@
       <c r="H31" t="n">
         <v>83054.41</v>
       </c>
+      <c r="I31" t="n">
+        <v>82927.42999999999</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1325,6 +1420,9 @@
       <c r="H32" t="n">
         <v>13866.35</v>
       </c>
+      <c r="I32" t="n">
+        <v>13855.51</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1352,6 +1450,9 @@
       </c>
       <c r="H33" t="n">
         <v>46301.28</v>
+      </c>
+      <c r="I33" t="n">
+        <v>46382.85</v>
       </c>
     </row>
     <row r="34">
@@ -1379,6 +1480,9 @@
       <c r="H34" t="n">
         <v>120316.38</v>
       </c>
+      <c r="I34" t="n">
+        <v>119735.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1407,6 +1511,9 @@
       <c r="H35" t="n">
         <v>214916.92</v>
       </c>
+      <c r="I35" t="n">
+        <v>215009.96</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1435,6 +1542,9 @@
       <c r="H36" t="n">
         <v>60582.73</v>
       </c>
+      <c r="I36" t="n">
+        <v>60572.81</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1463,6 +1573,9 @@
       <c r="H37" t="n">
         <v>153737.52</v>
       </c>
+      <c r="I37" t="n">
+        <v>154067.1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1490,6 +1603,9 @@
       </c>
       <c r="H38" t="n">
         <v>109394.13</v>
+      </c>
+      <c r="I38" t="n">
+        <v>109241.9</v>
       </c>
     </row>
     <row r="39">
@@ -1511,6 +1627,7 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1539,6 +1656,9 @@
       <c r="H40" t="n">
         <v>734556.4300000001</v>
       </c>
+      <c r="I40" t="n">
+        <v>738162.22</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1567,6 +1687,9 @@
       <c r="H41" t="n">
         <v>197355.92</v>
       </c>
+      <c r="I41" t="n">
+        <v>198712.24</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1594,6 +1717,9 @@
       </c>
       <c r="H42" t="n">
         <v>80022.25</v>
+      </c>
+      <c r="I42" t="n">
+        <v>80111.66</v>
       </c>
     </row>
     <row r="43">
@@ -1615,6 +1741,7 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1643,6 +1770,9 @@
       <c r="H44" t="n">
         <v>144901.52</v>
       </c>
+      <c r="I44" t="n">
+        <v>144626.16</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1670,6 +1800,9 @@
       </c>
       <c r="H45" t="n">
         <v>5796060.97</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5785046.3</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>45609.88</v>
       </c>
+      <c r="J2" t="n">
+        <v>45155.71</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>450238.13</v>
       </c>
+      <c r="J3" t="n">
+        <v>450982.83</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>69462.82000000001</v>
       </c>
+      <c r="J4" t="n">
+        <v>69448.49000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>36760.33</v>
       </c>
+      <c r="J5" t="n">
+        <v>36614.16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>99546.85000000001</v>
       </c>
+      <c r="J6" t="n">
+        <v>99422.82000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -660,6 +680,9 @@
       <c r="I7" t="n">
         <v>109.66</v>
       </c>
+      <c r="J7" t="n">
+        <v>108.35</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -691,6 +714,9 @@
       <c r="I8" t="n">
         <v>242595.15</v>
       </c>
+      <c r="J8" t="n">
+        <v>171681.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -722,6 +748,9 @@
       <c r="I9" t="n">
         <v>256742.18</v>
       </c>
+      <c r="J9" t="n">
+        <v>256724.66</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -753,6 +782,9 @@
       <c r="I10" t="n">
         <v>177887.91</v>
       </c>
+      <c r="J10" t="n">
+        <v>179240.22</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -784,6 +816,9 @@
       <c r="I11" t="n">
         <v>16606.66</v>
       </c>
+      <c r="J11" t="n">
+        <v>16516.62</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -815,6 +850,9 @@
       <c r="I12" t="n">
         <v>1213.76</v>
       </c>
+      <c r="J12" t="n">
+        <v>1223.18</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -846,6 +884,9 @@
       <c r="I13" t="n">
         <v>14968.2</v>
       </c>
+      <c r="J13" t="n">
+        <v>15010.26</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -877,6 +918,9 @@
       <c r="I14" t="n">
         <v>183587.63</v>
       </c>
+      <c r="J14" t="n">
+        <v>163445.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -908,6 +952,9 @@
       <c r="I15" t="n">
         <v>188242.86</v>
       </c>
+      <c r="J15" t="n">
+        <v>188188.6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -938,6 +985,9 @@
       </c>
       <c r="I16" t="n">
         <v>84.95999999999999</v>
+      </c>
+      <c r="J16" t="n">
+        <v>86.84</v>
       </c>
     </row>
     <row r="17">
@@ -968,6 +1018,9 @@
       <c r="I17" t="n">
         <v>349512.15</v>
       </c>
+      <c r="J17" t="n">
+        <v>348460.02</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -997,6 +1050,9 @@
       <c r="I18" t="n">
         <v>125281.54</v>
       </c>
+      <c r="J18" t="n">
+        <v>124894.21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1026,6 +1082,9 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1055,6 +1114,9 @@
       <c r="I20" t="n">
         <v>290436.9</v>
       </c>
+      <c r="J20" t="n">
+        <v>291178.13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1084,6 +1146,9 @@
       <c r="I21" t="n">
         <v>274282.59</v>
       </c>
+      <c r="J21" t="n">
+        <v>273880.59</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1113,6 +1178,9 @@
       <c r="I22" t="n">
         <v>265365</v>
       </c>
+      <c r="J22" t="n">
+        <v>265583.69</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1144,6 +1212,9 @@
       <c r="I23" t="n">
         <v>380237.02</v>
       </c>
+      <c r="J23" t="n">
+        <v>380491.17</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1175,6 +1246,9 @@
       <c r="I24" t="n">
         <v>61224.78</v>
       </c>
+      <c r="J24" t="n">
+        <v>61168.36</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1206,6 +1280,9 @@
       <c r="I25" t="n">
         <v>45856.32</v>
       </c>
+      <c r="J25" t="n">
+        <v>45847.69</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1237,6 +1314,9 @@
       <c r="I26" t="n">
         <v>10461.45</v>
       </c>
+      <c r="J26" t="n">
+        <v>10469.68</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1268,6 +1348,9 @@
       <c r="I27" t="n">
         <v>127868.28</v>
       </c>
+      <c r="J27" t="n">
+        <v>128324.86</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1299,6 +1382,9 @@
       <c r="I28" t="n">
         <v>160110.46</v>
       </c>
+      <c r="J28" t="n">
+        <v>160155</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1330,6 +1416,9 @@
       <c r="I29" t="n">
         <v>88751.39</v>
       </c>
+      <c r="J29" t="n">
+        <v>88728.46000000001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1361,6 +1450,9 @@
       <c r="I30" t="n">
         <v>3222.26</v>
       </c>
+      <c r="J30" t="n">
+        <v>3230.21</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1392,6 +1484,9 @@
       <c r="I31" t="n">
         <v>82927.42999999999</v>
       </c>
+      <c r="J31" t="n">
+        <v>83117.86</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1423,6 +1518,9 @@
       <c r="I32" t="n">
         <v>13855.51</v>
       </c>
+      <c r="J32" t="n">
+        <v>13842.71</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1453,6 +1551,9 @@
       </c>
       <c r="I33" t="n">
         <v>46382.85</v>
+      </c>
+      <c r="J33" t="n">
+        <v>46286.23</v>
       </c>
     </row>
     <row r="34">
@@ -1483,6 +1584,9 @@
       <c r="I34" t="n">
         <v>119735.5</v>
       </c>
+      <c r="J34" t="n">
+        <v>120266.09</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1514,6 +1618,9 @@
       <c r="I35" t="n">
         <v>215009.96</v>
       </c>
+      <c r="J35" t="n">
+        <v>214397.84</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1545,6 +1652,9 @@
       <c r="I36" t="n">
         <v>60572.81</v>
       </c>
+      <c r="J36" t="n">
+        <v>60720.62</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1576,6 +1686,9 @@
       <c r="I37" t="n">
         <v>154067.1</v>
       </c>
+      <c r="J37" t="n">
+        <v>154050.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1606,6 +1719,9 @@
       </c>
       <c r="I38" t="n">
         <v>109241.9</v>
+      </c>
+      <c r="J38" t="n">
+        <v>109629.68</v>
       </c>
     </row>
     <row r="39">
@@ -1628,6 +1744,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1659,6 +1776,9 @@
       <c r="I40" t="n">
         <v>738162.22</v>
       </c>
+      <c r="J40" t="n">
+        <v>736818.08</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1690,6 +1810,9 @@
       <c r="I41" t="n">
         <v>198712.24</v>
       </c>
+      <c r="J41" t="n">
+        <v>197438.15</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1720,6 +1843,9 @@
       </c>
       <c r="I42" t="n">
         <v>80111.66</v>
+      </c>
+      <c r="J42" t="n">
+        <v>79994.22</v>
       </c>
     </row>
     <row r="43">
@@ -1742,6 +1868,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1773,6 +1900,9 @@
       <c r="I44" t="n">
         <v>144626.16</v>
       </c>
+      <c r="J44" t="n">
+        <v>142320.61</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1803,6 +1933,9 @@
       </c>
       <c r="I45" t="n">
         <v>5785046.3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5692824.38</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>45155.71</v>
       </c>
+      <c r="K2" t="n">
+        <v>45713.67</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>450982.83</v>
       </c>
+      <c r="K3" t="n">
+        <v>450963.31</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>69448.49000000001</v>
       </c>
+      <c r="K4" t="n">
+        <v>69535.37</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>36614.16</v>
       </c>
+      <c r="K5" t="n">
+        <v>36704.99</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>99422.82000000001</v>
       </c>
+      <c r="K6" t="n">
+        <v>98963.87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>108.35</v>
       </c>
+      <c r="K7" t="n">
+        <v>102.6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -717,6 +740,9 @@
       <c r="J8" t="n">
         <v>171681.89</v>
       </c>
+      <c r="K8" t="n">
+        <v>171529.91</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -751,6 +777,9 @@
       <c r="J9" t="n">
         <v>256724.66</v>
       </c>
+      <c r="K9" t="n">
+        <v>256810.59</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -785,6 +814,9 @@
       <c r="J10" t="n">
         <v>179240.22</v>
       </c>
+      <c r="K10" t="n">
+        <v>180651.16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -819,6 +851,9 @@
       <c r="J11" t="n">
         <v>16516.62</v>
       </c>
+      <c r="K11" t="n">
+        <v>1964.31</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -853,6 +888,9 @@
       <c r="J12" t="n">
         <v>1223.18</v>
       </c>
+      <c r="K12" t="n">
+        <v>1220.4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -887,6 +925,9 @@
       <c r="J13" t="n">
         <v>15010.26</v>
       </c>
+      <c r="K13" t="n">
+        <v>14972.88</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -921,6 +962,9 @@
       <c r="J14" t="n">
         <v>163445.5</v>
       </c>
+      <c r="K14" t="n">
+        <v>212718.87</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -955,6 +999,9 @@
       <c r="J15" t="n">
         <v>188188.6</v>
       </c>
+      <c r="K15" t="n">
+        <v>188249.79</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -988,6 +1035,9 @@
       </c>
       <c r="J16" t="n">
         <v>86.84</v>
+      </c>
+      <c r="K16" t="n">
+        <v>90.91</v>
       </c>
     </row>
     <row r="17">
@@ -1021,6 +1071,9 @@
       <c r="J17" t="n">
         <v>348460.02</v>
       </c>
+      <c r="K17" t="n">
+        <v>349837.51</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1053,6 +1106,9 @@
       <c r="J18" t="n">
         <v>124894.21</v>
       </c>
+      <c r="K18" t="n">
+        <v>125421.19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1085,6 +1141,9 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1117,6 +1176,9 @@
       <c r="J20" t="n">
         <v>291178.13</v>
       </c>
+      <c r="K20" t="n">
+        <v>290563.49</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1149,6 +1211,9 @@
       <c r="J21" t="n">
         <v>273880.59</v>
       </c>
+      <c r="K21" t="n">
+        <v>274121.86</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1181,6 +1246,9 @@
       <c r="J22" t="n">
         <v>265583.69</v>
       </c>
+      <c r="K22" t="n">
+        <v>265933.02</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1215,6 +1283,9 @@
       <c r="J23" t="n">
         <v>380491.17</v>
       </c>
+      <c r="K23" t="n">
+        <v>380376.28</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1249,6 +1320,9 @@
       <c r="J24" t="n">
         <v>61168.36</v>
       </c>
+      <c r="K24" t="n">
+        <v>61179.83</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1283,6 +1357,9 @@
       <c r="J25" t="n">
         <v>45847.69</v>
       </c>
+      <c r="K25" t="n">
+        <v>45848.71</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1317,6 +1394,9 @@
       <c r="J26" t="n">
         <v>10469.68</v>
       </c>
+      <c r="K26" t="n">
+        <v>10505.41</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1351,6 +1431,9 @@
       <c r="J27" t="n">
         <v>128324.86</v>
       </c>
+      <c r="K27" t="n">
+        <v>128310.74</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1385,6 +1468,9 @@
       <c r="J28" t="n">
         <v>160155</v>
       </c>
+      <c r="K28" t="n">
+        <v>179748.62</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1419,6 +1505,9 @@
       <c r="J29" t="n">
         <v>88728.46000000001</v>
       </c>
+      <c r="K29" t="n">
+        <v>88516.60000000001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1453,6 +1542,9 @@
       <c r="J30" t="n">
         <v>3230.21</v>
       </c>
+      <c r="K30" t="n">
+        <v>3240.37</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1487,6 +1579,9 @@
       <c r="J31" t="n">
         <v>83117.86</v>
       </c>
+      <c r="K31" t="n">
+        <v>76021.39999999999</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1521,6 +1616,9 @@
       <c r="J32" t="n">
         <v>13842.71</v>
       </c>
+      <c r="K32" t="n">
+        <v>13850.76</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1554,6 +1652,9 @@
       </c>
       <c r="J33" t="n">
         <v>46286.23</v>
+      </c>
+      <c r="K33" t="n">
+        <v>46396.74</v>
       </c>
     </row>
     <row r="34">
@@ -1587,6 +1688,9 @@
       <c r="J34" t="n">
         <v>120266.09</v>
       </c>
+      <c r="K34" t="n">
+        <v>119780.14</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1621,6 +1725,9 @@
       <c r="J35" t="n">
         <v>214397.84</v>
       </c>
+      <c r="K35" t="n">
+        <v>214341.43</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1655,6 +1762,9 @@
       <c r="J36" t="n">
         <v>60720.62</v>
       </c>
+      <c r="K36" t="n">
+        <v>60408.96</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1689,6 +1799,9 @@
       <c r="J37" t="n">
         <v>154050.7</v>
       </c>
+      <c r="K37" t="n">
+        <v>153799.53</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1722,6 +1835,9 @@
       </c>
       <c r="J38" t="n">
         <v>109629.68</v>
+      </c>
+      <c r="K38" t="n">
+        <v>109333.6</v>
       </c>
     </row>
     <row r="39">
@@ -1745,6 +1861,7 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1779,6 +1896,9 @@
       <c r="J40" t="n">
         <v>736818.08</v>
       </c>
+      <c r="K40" t="n">
+        <v>736379.66</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1813,6 +1933,9 @@
       <c r="J41" t="n">
         <v>197438.15</v>
       </c>
+      <c r="K41" t="n">
+        <v>198020.46</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1846,6 +1969,9 @@
       </c>
       <c r="J42" t="n">
         <v>79994.22</v>
+      </c>
+      <c r="K42" t="n">
+        <v>79995.10000000001</v>
       </c>
     </row>
     <row r="43">
@@ -1869,6 +1995,7 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1903,6 +2030,9 @@
       <c r="J44" t="n">
         <v>142320.61</v>
       </c>
+      <c r="K44" t="n">
+        <v>143553.1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1936,6 +2066,9 @@
       </c>
       <c r="J45" t="n">
         <v>5692824.38</v>
+      </c>
+      <c r="K45" t="n">
+        <v>5742124.04</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>45713.67</v>
       </c>
+      <c r="L2" t="n">
+        <v>45135.45</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>450963.31</v>
       </c>
+      <c r="L3" t="n">
+        <v>450476.24</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>69535.37</v>
       </c>
+      <c r="L4" t="n">
+        <v>69386.17</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>36704.99</v>
       </c>
+      <c r="L5" t="n">
+        <v>36655.73</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>98963.87</v>
       </c>
+      <c r="L6" t="n">
+        <v>99416.28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -706,6 +726,9 @@
       <c r="K7" t="n">
         <v>102.6</v>
       </c>
+      <c r="L7" t="n">
+        <v>103.22</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -743,6 +766,9 @@
       <c r="K8" t="n">
         <v>171529.91</v>
       </c>
+      <c r="L8" t="n">
+        <v>94772.69</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -780,6 +806,9 @@
       <c r="K9" t="n">
         <v>256810.59</v>
       </c>
+      <c r="L9" t="n">
+        <v>256846.29</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -817,6 +846,9 @@
       <c r="K10" t="n">
         <v>180651.16</v>
       </c>
+      <c r="L10" t="n">
+        <v>176458.93</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -854,6 +886,9 @@
       <c r="K11" t="n">
         <v>1964.31</v>
       </c>
+      <c r="L11" t="n">
+        <v>1962.77</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -891,6 +926,9 @@
       <c r="K12" t="n">
         <v>1220.4</v>
       </c>
+      <c r="L12" t="n">
+        <v>1217.93</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -928,6 +966,9 @@
       <c r="K13" t="n">
         <v>14972.88</v>
       </c>
+      <c r="L13" t="n">
+        <v>14829.85</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -965,6 +1006,9 @@
       <c r="K14" t="n">
         <v>212718.87</v>
       </c>
+      <c r="L14" t="n">
+        <v>253384.21</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1002,6 +1046,9 @@
       <c r="K15" t="n">
         <v>188249.79</v>
       </c>
+      <c r="L15" t="n">
+        <v>179914.19</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1038,6 +1085,9 @@
       </c>
       <c r="K16" t="n">
         <v>90.91</v>
+      </c>
+      <c r="L16" t="n">
+        <v>89.40000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1074,6 +1124,9 @@
       <c r="K17" t="n">
         <v>349837.51</v>
       </c>
+      <c r="L17" t="n">
+        <v>349412.79</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1109,6 +1162,9 @@
       <c r="K18" t="n">
         <v>125421.19</v>
       </c>
+      <c r="L18" t="n">
+        <v>125296.46</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1144,6 +1200,9 @@
       <c r="K19" t="n">
         <v>0</v>
       </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1179,6 +1238,9 @@
       <c r="K20" t="n">
         <v>290563.49</v>
       </c>
+      <c r="L20" t="n">
+        <v>311520.35</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1214,6 +1276,9 @@
       <c r="K21" t="n">
         <v>274121.86</v>
       </c>
+      <c r="L21" t="n">
+        <v>292334.92</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1249,6 +1314,9 @@
       <c r="K22" t="n">
         <v>265933.02</v>
       </c>
+      <c r="L22" t="n">
+        <v>261601.65</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1286,6 +1354,9 @@
       <c r="K23" t="n">
         <v>380376.28</v>
       </c>
+      <c r="L23" t="n">
+        <v>381185.93</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1323,6 +1394,9 @@
       <c r="K24" t="n">
         <v>61179.83</v>
       </c>
+      <c r="L24" t="n">
+        <v>60979.44</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1360,6 +1434,9 @@
       <c r="K25" t="n">
         <v>45848.71</v>
       </c>
+      <c r="L25" t="n">
+        <v>45879.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1397,6 +1474,9 @@
       <c r="K26" t="n">
         <v>10505.41</v>
       </c>
+      <c r="L26" t="n">
+        <v>10501.11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1434,6 +1514,9 @@
       <c r="K27" t="n">
         <v>128310.74</v>
       </c>
+      <c r="L27" t="n">
+        <v>117978.96</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1471,6 +1554,9 @@
       <c r="K28" t="n">
         <v>179748.62</v>
       </c>
+      <c r="L28" t="n">
+        <v>179770.99</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1508,6 +1594,9 @@
       <c r="K29" t="n">
         <v>88516.60000000001</v>
       </c>
+      <c r="L29" t="n">
+        <v>87989.52</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1545,6 +1634,9 @@
       <c r="K30" t="n">
         <v>3240.37</v>
       </c>
+      <c r="L30" t="n">
+        <v>3217.77</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1582,6 +1674,9 @@
       <c r="K31" t="n">
         <v>76021.39999999999</v>
       </c>
+      <c r="L31" t="n">
+        <v>73245.67</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1619,6 +1714,9 @@
       <c r="K32" t="n">
         <v>13850.76</v>
       </c>
+      <c r="L32" t="n">
+        <v>13807.93</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1655,6 +1753,9 @@
       </c>
       <c r="K33" t="n">
         <v>46396.74</v>
+      </c>
+      <c r="L33" t="n">
+        <v>46337.82</v>
       </c>
     </row>
     <row r="34">
@@ -1691,6 +1792,9 @@
       <c r="K34" t="n">
         <v>119780.14</v>
       </c>
+      <c r="L34" t="n">
+        <v>120013.95</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1728,6 +1832,9 @@
       <c r="K35" t="n">
         <v>214341.43</v>
       </c>
+      <c r="L35" t="n">
+        <v>214716.34</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1765,6 +1872,9 @@
       <c r="K36" t="n">
         <v>60408.96</v>
       </c>
+      <c r="L36" t="n">
+        <v>60505.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1802,6 +1912,9 @@
       <c r="K37" t="n">
         <v>153799.53</v>
       </c>
+      <c r="L37" t="n">
+        <v>153934.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1838,6 +1951,9 @@
       </c>
       <c r="K38" t="n">
         <v>109333.6</v>
+      </c>
+      <c r="L38" t="n">
+        <v>109631.85</v>
       </c>
     </row>
     <row r="39">
@@ -1862,6 +1978,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1899,6 +2016,9 @@
       <c r="K40" t="n">
         <v>736379.66</v>
       </c>
+      <c r="L40" t="n">
+        <v>738004.27</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1936,6 +2056,9 @@
       <c r="K41" t="n">
         <v>198020.46</v>
       </c>
+      <c r="L41" t="n">
+        <v>198599</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1972,6 +2095,9 @@
       </c>
       <c r="K42" t="n">
         <v>79995.10000000001</v>
+      </c>
+      <c r="L42" t="n">
+        <v>80097.24000000001</v>
       </c>
     </row>
     <row r="43">
@@ -1996,6 +2122,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2033,6 +2160,9 @@
       <c r="K44" t="n">
         <v>143553.1</v>
       </c>
+      <c r="L44" t="n">
+        <v>142930.32</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2069,6 +2199,9 @@
       </c>
       <c r="K45" t="n">
         <v>5742124.04</v>
+      </c>
+      <c r="L45" t="n">
+        <v>5717212.81</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>45135.45</v>
       </c>
+      <c r="M2" t="n">
+        <v>45594.91</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>450476.24</v>
       </c>
+      <c r="M3" t="n">
+        <v>449894.05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>69386.17</v>
       </c>
+      <c r="M4" t="n">
+        <v>69388.66</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>36655.73</v>
       </c>
+      <c r="M5" t="n">
+        <v>36747.22</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -689,6 +706,9 @@
       <c r="L6" t="n">
         <v>99416.28</v>
       </c>
+      <c r="M6" t="n">
+        <v>98818.37</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -729,6 +749,9 @@
       <c r="L7" t="n">
         <v>103.22</v>
       </c>
+      <c r="M7" t="n">
+        <v>102.52</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -769,6 +792,9 @@
       <c r="L8" t="n">
         <v>94772.69</v>
       </c>
+      <c r="M8" t="n">
+        <v>96217.66</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -809,6 +835,9 @@
       <c r="L9" t="n">
         <v>256846.29</v>
       </c>
+      <c r="M9" t="n">
+        <v>256878.88</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -849,6 +878,9 @@
       <c r="L10" t="n">
         <v>176458.93</v>
       </c>
+      <c r="M10" t="n">
+        <v>177747.35</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -889,6 +921,9 @@
       <c r="L11" t="n">
         <v>1962.77</v>
       </c>
+      <c r="M11" t="n">
+        <v>1962.89</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -929,6 +964,9 @@
       <c r="L12" t="n">
         <v>1217.93</v>
       </c>
+      <c r="M12" t="n">
+        <v>1222.25</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -969,6 +1007,9 @@
       <c r="L13" t="n">
         <v>14829.85</v>
       </c>
+      <c r="M13" t="n">
+        <v>14873.4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1009,6 +1050,9 @@
       <c r="L14" t="n">
         <v>253384.21</v>
       </c>
+      <c r="M14" t="n">
+        <v>342993.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1049,6 +1093,9 @@
       <c r="L15" t="n">
         <v>179914.19</v>
       </c>
+      <c r="M15" t="n">
+        <v>179868.67</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1088,6 +1135,9 @@
       </c>
       <c r="L16" t="n">
         <v>89.40000000000001</v>
+      </c>
+      <c r="M16" t="n">
+        <v>102.36</v>
       </c>
     </row>
     <row r="17">
@@ -1127,6 +1177,9 @@
       <c r="L17" t="n">
         <v>349412.79</v>
       </c>
+      <c r="M17" t="n">
+        <v>350589.28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1165,6 +1218,9 @@
       <c r="L18" t="n">
         <v>125296.46</v>
       </c>
+      <c r="M18" t="n">
+        <v>125210.48</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1203,6 +1259,9 @@
       <c r="L19" t="n">
         <v>0</v>
       </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1241,6 +1300,9 @@
       <c r="L20" t="n">
         <v>311520.35</v>
       </c>
+      <c r="M20" t="n">
+        <v>334830.92</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1279,6 +1341,9 @@
       <c r="L21" t="n">
         <v>292334.92</v>
       </c>
+      <c r="M21" t="n">
+        <v>313992.72</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1317,6 +1382,9 @@
       <c r="L22" t="n">
         <v>261601.65</v>
       </c>
+      <c r="M22" t="n">
+        <v>255275.24</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1357,6 +1425,9 @@
       <c r="L23" t="n">
         <v>381185.93</v>
       </c>
+      <c r="M23" t="n">
+        <v>381019.16</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1397,6 +1468,9 @@
       <c r="L24" t="n">
         <v>60979.44</v>
       </c>
+      <c r="M24" t="n">
+        <v>61201.21</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1437,6 +1511,9 @@
       <c r="L25" t="n">
         <v>45879.3</v>
       </c>
+      <c r="M25" t="n">
+        <v>45828.92</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1477,6 +1554,9 @@
       <c r="L26" t="n">
         <v>10501.11</v>
       </c>
+      <c r="M26" t="n">
+        <v>10469.75</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1517,6 +1597,9 @@
       <c r="L27" t="n">
         <v>117978.96</v>
       </c>
+      <c r="M27" t="n">
+        <v>118234.57</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1557,6 +1640,9 @@
       <c r="L28" t="n">
         <v>179770.99</v>
       </c>
+      <c r="M28" t="n">
+        <v>180100.14</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1597,6 +1683,9 @@
       <c r="L29" t="n">
         <v>87989.52</v>
       </c>
+      <c r="M29" t="n">
+        <v>77511.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1637,6 +1726,9 @@
       <c r="L30" t="n">
         <v>3217.77</v>
       </c>
+      <c r="M30" t="n">
+        <v>3222.66</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1677,6 +1769,9 @@
       <c r="L31" t="n">
         <v>73245.67</v>
       </c>
+      <c r="M31" t="n">
+        <v>72127.98</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1717,6 +1812,9 @@
       <c r="L32" t="n">
         <v>13807.93</v>
       </c>
+      <c r="M32" t="n">
+        <v>13975.33</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1756,6 +1854,9 @@
       </c>
       <c r="L33" t="n">
         <v>46337.82</v>
+      </c>
+      <c r="M33" t="n">
+        <v>46413.03</v>
       </c>
     </row>
     <row r="34">
@@ -1795,6 +1896,9 @@
       <c r="L34" t="n">
         <v>120013.95</v>
       </c>
+      <c r="M34" t="n">
+        <v>119717.39</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1835,6 +1939,9 @@
       <c r="L35" t="n">
         <v>214716.34</v>
       </c>
+      <c r="M35" t="n">
+        <v>214316.94</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1875,6 +1982,9 @@
       <c r="L36" t="n">
         <v>60505.9</v>
       </c>
+      <c r="M36" t="n">
+        <v>60573.07</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1915,6 +2025,9 @@
       <c r="L37" t="n">
         <v>153934.3</v>
       </c>
+      <c r="M37" t="n">
+        <v>153705.57</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1954,6 +2067,9 @@
       </c>
       <c r="L38" t="n">
         <v>109631.85</v>
+      </c>
+      <c r="M38" t="n">
+        <v>106119.83</v>
       </c>
     </row>
     <row r="39">
@@ -1979,6 +2095,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2019,6 +2136,9 @@
       <c r="L40" t="n">
         <v>738004.27</v>
       </c>
+      <c r="M40" t="n">
+        <v>738428.88</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2059,6 +2179,9 @@
       <c r="L41" t="n">
         <v>198599</v>
       </c>
+      <c r="M41" t="n">
+        <v>198814.4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2098,6 +2221,9 @@
       </c>
       <c r="L42" t="n">
         <v>80097.24000000001</v>
+      </c>
+      <c r="M42" t="n">
+        <v>80071.74000000001</v>
       </c>
     </row>
     <row r="43">
@@ -2123,6 +2249,7 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -2163,6 +2290,9 @@
       <c r="L44" t="n">
         <v>142930.32</v>
       </c>
+      <c r="M44" t="n">
+        <v>145854.09</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -2202,6 +2332,9 @@
       </c>
       <c r="L45" t="n">
         <v>5717212.81</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5834163.5</v>
       </c>
     </row>
   </sheetData>
